--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26329,7 +26331,7 @@
         <v>4850.227275683779</v>
       </c>
       <c r="H2" t="n">
-        <v>4850.227275683781</v>
+        <v>4850.22727568378</v>
       </c>
       <c r="I2" t="n">
         <v>4850.227275683779</v>
@@ -26338,10 +26340,10 @@
         <v>4850.227275683779</v>
       </c>
       <c r="K2" t="n">
-        <v>4850.227275683778</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="L2" t="n">
-        <v>4850.22727568378</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="M2" t="n">
         <v>4850.22727568378</v>
@@ -26350,7 +26352,7 @@
         <v>4850.227275683779</v>
       </c>
       <c r="O2" t="n">
-        <v>4850.227275683778</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="P2" t="n">
         <v>4850.227275683779</v>
@@ -26546,10 +26548,10 @@
         <v>2425.11363784189</v>
       </c>
       <c r="K6" t="n">
-        <v>2425.113637841889</v>
+        <v>2425.11363784189</v>
       </c>
       <c r="L6" t="n">
-        <v>2425.113637841891</v>
+        <v>2425.11363784189</v>
       </c>
       <c r="M6" t="n">
         <v>2425.113637841891</v>
@@ -26558,7 +26560,7 @@
         <v>2425.11363784189</v>
       </c>
       <c r="O6" t="n">
-        <v>2425.113637841889</v>
+        <v>2425.11363784189</v>
       </c>
       <c r="P6" t="n">
         <v>2425.11363784189</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71699.3825578392</v>
+        <v>-83298.2265197098</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>4850.227275683779</v>
       </c>
       <c r="C2" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.22727568378</v>
       </c>
       <c r="D2" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.22727568378</v>
       </c>
       <c r="E2" t="n">
         <v>4850.227275683779</v>
@@ -26328,13 +26328,13 @@
         <v>4850.227275683779</v>
       </c>
       <c r="G2" t="n">
+        <v>4850.22727568378</v>
+      </c>
+      <c r="H2" t="n">
         <v>4850.227275683779</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>4850.22727568378</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4850.227275683779</v>
       </c>
       <c r="J2" t="n">
         <v>4850.227275683779</v>
@@ -26346,7 +26346,7 @@
         <v>4850.227275683779</v>
       </c>
       <c r="M2" t="n">
-        <v>4850.22727568378</v>
+        <v>4850.227275683779</v>
       </c>
       <c r="N2" t="n">
         <v>4850.227275683779</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31202.48636215811</v>
+        <v>-32588.79892869849</v>
       </c>
       <c r="C6" t="n">
-        <v>-31202.48636215811</v>
+        <v>-32588.79892869849</v>
       </c>
       <c r="D6" t="n">
-        <v>-31202.48636215811</v>
+        <v>-32588.79892869849</v>
       </c>
       <c r="E6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="F6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="G6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.80107130151</v>
       </c>
       <c r="H6" t="n">
-        <v>2425.113637841891</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="I6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.80107130151</v>
       </c>
       <c r="J6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="K6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="L6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="M6" t="n">
-        <v>2425.113637841891</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="N6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="O6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="P6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
     </row>
   </sheetData>
